--- a/0116.xlsx
+++ b/0116.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\겨울방학 방과후 엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -483,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:J15"/>
+  <dimension ref="B4:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,243 +497,243 @@
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>176</v>
+      </c>
+      <c r="F5">
+        <v>350000</v>
+      </c>
+      <c r="G5">
+        <v>245000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="F6">
-        <v>350000</v>
+        <v>275000</v>
       </c>
       <c r="G6">
-        <v>245000</v>
+        <v>190000</v>
       </c>
       <c r="H6" s="2">
-        <v>0.85499999999999998</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>275000</v>
+        <v>250000</v>
       </c>
       <c r="G7">
-        <v>190000</v>
+        <v>175000</v>
       </c>
       <c r="H7" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.89700000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="F8">
-        <v>250000</v>
+        <v>232000</v>
       </c>
       <c r="G8">
-        <v>175000</v>
+        <v>160000</v>
       </c>
       <c r="H8" s="2">
-        <v>0.89700000000000002</v>
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="F9">
-        <v>232000</v>
+        <v>295000</v>
       </c>
       <c r="G9">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="H9" s="2">
-        <v>0.81699999999999995</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="F10">
-        <v>295000</v>
+        <v>254000</v>
       </c>
       <c r="G10">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="H10" s="2">
-        <v>0.79400000000000004</v>
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>353</v>
+        <v>198</v>
       </c>
       <c r="F11">
-        <v>254000</v>
+        <v>195000</v>
       </c>
       <c r="G11">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="H11" s="2">
-        <v>0.79100000000000004</v>
+        <v>0.81399999999999995</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="F12">
-        <v>195000</v>
+        <v>125000</v>
       </c>
       <c r="G12">
-        <v>130000</v>
+        <v>87000</v>
       </c>
       <c r="H12" s="2">
-        <v>0.81399999999999995</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>105</v>
-      </c>
-      <c r="F13">
-        <v>125000</v>
-      </c>
-      <c r="G13">
-        <v>87000</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.79400000000000004</v>
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I14" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
-      <formula1>$B$6:$B$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
+      <formula1>$B$5:$B$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
